--- a/template.xlsx
+++ b/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AngularProjects\beemadukaan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Downloads\Te stData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1766AC6B-8899-4773-8547-465DC4E55139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2B21E7-D8EE-4D9A-AE25-6AE2F2A6B8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Serial</t>
   </si>
@@ -42,26 +42,58 @@
     <t>Registration No.</t>
   </si>
   <si>
-    <t>Expiry Date</t>
-  </si>
-  <si>
-    <t>Premiuim To Paid</t>
-  </si>
-  <si>
     <t>Mobile Number</t>
   </si>
   <si>
-    <t>Total Premiuim</t>
+    <t>Test one</t>
+  </si>
+  <si>
+    <t>test@test.com</t>
+  </si>
+  <si>
+    <t>12345678fdsfdsf</t>
+  </si>
+  <si>
+    <t>123456789dsfsd5</t>
+  </si>
+  <si>
+    <t>123456789dsf45d</t>
+  </si>
+  <si>
+    <t>123456789dsfs6d</t>
+  </si>
+  <si>
+    <t>1234t678fdsfdsf</t>
+  </si>
+  <si>
+    <t>125re678fdsfdsf</t>
+  </si>
+  <si>
+    <t>Total Premium</t>
+  </si>
+  <si>
+    <t>Premium To Paid</t>
+  </si>
+  <si>
+    <t>Start Date (MM/DD/YYYY)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -84,13 +116,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -369,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,7 +417,7 @@
     <col min="3" max="3" width="25.85546875" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1"/>
     <col min="7" max="7" width="27.5703125" customWidth="1"/>
     <col min="8" max="8" width="27.42578125" customWidth="1"/>
     <col min="9" max="9" width="23.28515625" customWidth="1"/>
@@ -405,20 +441,111 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="D2" t="s">
         <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2">
+        <v>44168</v>
+      </c>
+      <c r="G2">
+        <v>55400</v>
+      </c>
+      <c r="H2">
+        <v>1234567890</v>
+      </c>
+      <c r="I2">
+        <v>234567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2">
+        <v>44169</v>
+      </c>
+      <c r="G3">
+        <v>55400</v>
+      </c>
+      <c r="H3">
+        <v>1234567890</v>
+      </c>
+      <c r="I3">
+        <v>234567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2">
+        <v>44170</v>
+      </c>
+      <c r="G4">
+        <v>55400</v>
+      </c>
+      <c r="H4">
+        <v>1234567890</v>
+      </c>
+      <c r="I4">
+        <v>234567</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{5B0D44B5-C6E9-49CE-BDF6-EEB5D948CA6B}"/>
+    <hyperlink ref="C3:C4" r:id="rId2" display="test@test.com" xr:uid="{21615726-6CD3-4353-9D86-F902B42DC99F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>